--- a/cmake-build-debug/loginy.xlsx
+++ b/cmake-build-debug/loginy.xlsx
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>admin@exemp.pl</t>
+  </si>
+  <si>
+    <t>WWA</t>
   </si>
 </sst>
 </file>
@@ -444,7 +447,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>

--- a/cmake-build-debug/loginy.xlsx
+++ b/cmake-build-debug/loginy.xlsx
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>WWA</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>123@mail</t>
+  </si>
+  <si>
+    <t>brak</t>
   </si>
 </sst>
 </file>
@@ -456,6 +468,26 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cmake-build-debug/loginy.xlsx
+++ b/cmake-build-debug/loginy.xlsx
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>brak</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>mati</t>
   </si>
 </sst>
 </file>
@@ -488,6 +494,26 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cmake-build-debug/loginy.xlsx
+++ b/cmake-build-debug/loginy.xlsx
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>mati</t>
+  </si>
+  <si>
+    <t>WWW</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>wkow</t>
   </si>
 </sst>
 </file>
@@ -514,6 +523,26 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cmake-build-debug/loginy.xlsx
+++ b/cmake-build-debug/loginy.xlsx
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>wkow</t>
+  </si>
+  <si>
+    <t>Mati</t>
   </si>
 </sst>
 </file>
@@ -485,7 +488,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>

--- a/cmake-build-debug/loginy.xlsx
+++ b/cmake-build-debug/loginy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wikto\CLionProjects\Projekt-IO\cmake-build-debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projekt-IO\cmake-build-debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0011F7CB-73F1-4054-81C8-E547721F20D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9723B3-561F-446F-8843-75F7628C3B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40575" yWindow="2130" windowWidth="23040" windowHeight="12210" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,32 +33,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>/</t>
   </si>
   <si>
-    <t>Wiktor</t>
-  </si>
-  <si>
-    <t>Kowalski</t>
-  </si>
-  <si>
-    <t>X123Y</t>
-  </si>
-  <si>
-    <t>W123</t>
-  </si>
-  <si>
     <t>Administrator</t>
   </si>
   <si>
-    <t>admin@exemp.pl</t>
-  </si>
-  <si>
-    <t>WWA</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
@@ -71,22 +53,28 @@
     <t>brak</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>mati</t>
-  </si>
-  <si>
-    <t>WWW</t>
-  </si>
-  <si>
-    <t>XXX</t>
-  </si>
-  <si>
-    <t>wkow</t>
-  </si>
-  <si>
-    <t>Mati</t>
+    <t>qe</t>
+  </si>
+  <si>
+    <t>qe@qe.qw</t>
+  </si>
+  <si>
+    <t>Kuzera</t>
+  </si>
+  <si>
+    <t>Mateusz</t>
+  </si>
+  <si>
+    <t>LOL</t>
+  </si>
+  <si>
+    <t>Dentysta</t>
+  </si>
+  <si>
+    <t>LOL2</t>
+  </si>
+  <si>
+    <t>q</t>
   </si>
 </sst>
 </file>
@@ -430,7 +418,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -438,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -466,87 +454,88 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
+      <c r="F3" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/cmake-build-debug/loginy.xlsx
+++ b/cmake-build-debug/loginy.xlsx
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>q</t>
+  </si>
+  <si>
+    <t>XD</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>mateusz.qzera@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -534,6 +543,26 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cmake-build-debug/loginy.xlsx
+++ b/cmake-build-debug/loginy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projekt-IO\cmake-build-debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wikto\CLionProjects\Projekt-IO\cmake-build-debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9723B3-561F-446F-8843-75F7628C3B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BACD77-90B8-4101-91D6-4BECF3634284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>/</t>
   </si>
@@ -427,7 +427,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -543,7 +543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>

--- a/cmake-build-debug/loginy.xlsx
+++ b/cmake-build-debug/loginy.xlsx
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>mateusz.qzera@gmail.com</t>
+  </si>
+  <si>
+    <t>Lugowski</t>
   </si>
 </sst>
 </file>
@@ -465,16 +468,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>

--- a/cmake-build-debug/loginy.xlsx
+++ b/cmake-build-debug/loginy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wikto\CLionProjects\Projekt-IO\cmake-build-debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projekt-IO\cmake-build-debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BACD77-90B8-4101-91D6-4BECF3634284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454F0E3B-B23F-44E7-8F74-A04A67A5C9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="2424" yWindow="1368" windowWidth="17280" windowHeight="8964" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>/</t>
   </si>
@@ -71,22 +71,22 @@
     <t>Dentysta</t>
   </si>
   <si>
-    <t>LOL2</t>
-  </si>
-  <si>
     <t>q</t>
   </si>
   <si>
-    <t>XD</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
+    <t>Lugowski</t>
+  </si>
+  <si>
+    <t>Qzera</t>
+  </si>
+  <si>
+    <t>kuzera123</t>
+  </si>
+  <si>
     <t>mateusz.qzera@gmail.com</t>
-  </si>
-  <si>
-    <t>Lugowski</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -471,13 +471,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -534,10 +534,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -546,7 +546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -554,16 +554,16 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/cmake-build-debug/loginy.xlsx
+++ b/cmake-build-debug/loginy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projekt-IO\cmake-build-debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454F0E3B-B23F-44E7-8F74-A04A67A5C9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EED5A9-B9DE-4F3F-A21F-314862D2F2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2424" yWindow="1368" windowWidth="17280" windowHeight="8964" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
@@ -33,60 +33,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
   <si>
     <t>/</t>
-  </si>
-  <si>
-    <t>Administrator</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>123</t>
+    <t>admin</t>
   </si>
   <si>
-    <t>123@mail</t>
+    <t>gabinetdentystycznyiodent@gmail.com</t>
   </si>
   <si>
-    <t>brak</t>
-  </si>
-  <si>
-    <t>qe</t>
-  </si>
-  <si>
-    <t>qe@qe.qw</t>
-  </si>
-  <si>
-    <t>Kuzera</t>
-  </si>
-  <si>
-    <t>Mateusz</t>
-  </si>
-  <si>
-    <t>LOL</t>
-  </si>
-  <si>
-    <t>Dentysta</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Lugowski</t>
-  </si>
-  <si>
-    <t>Qzera</t>
-  </si>
-  <si>
-    <t>kuzera123</t>
-  </si>
-  <si>
-    <t>mateusz.qzera@gmail.com</t>
+    <t>Administrator</t>
   </si>
 </sst>
 </file>
@@ -438,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -468,102 +429,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
         <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
